--- a/kicad/design_calcs.xlsx
+++ b/kicad/design_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank Walsh\Documents\GitHub\phoenix-down\kicad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFA3692-23F8-4435-B50B-665FCA8BCA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B50B1D9-768D-4542-9671-DF02998B988D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11430" yWindow="7305" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thermistor" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Parameter</t>
   </si>
@@ -123,6 +123,9 @@
   <si>
     <t>ADC reading (Decimal)</t>
   </si>
+  <si>
+    <t>Red LED</t>
+  </si>
 </sst>
 </file>
 
@@ -165,16 +168,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3382,7 +3388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -3402,11 +3408,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -3437,10 +3443,10 @@
       <c r="C5">
         <v>3930</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -3483,7 +3489,7 @@
         <v>293.14999999999998</v>
       </c>
       <c r="I6">
-        <f>$C$4*EXP($C$5 * ((1/H6) - (1/$C$7)))</f>
+        <f t="shared" ref="I6:I46" si="0">$C$4*EXP($C$5 * ((1/H6) - (1/$C$7)))</f>
         <v>12520.991974613418</v>
       </c>
       <c r="J6">
@@ -3494,7 +3500,7 @@
         <f>$C$12*J6/(J6+$C$10)</f>
         <v>2.4269492804120776</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <f>((2^12)/3.3)*K6</f>
         <v>3012.3588644145061</v>
       </c>
@@ -3522,23 +3528,23 @@
         <v>22</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H46" si="0">G7+273.15</f>
+        <f t="shared" ref="H7:H46" si="1">G7+273.15</f>
         <v>295.14999999999998</v>
       </c>
       <c r="I7">
-        <f>$C$4*EXP($C$5 * ((1/H7) - (1/$C$7)))</f>
+        <f t="shared" si="0"/>
         <v>11433.686223727138</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J46" si="1">(I7*$C$11)/(I7+$C$11)</f>
+        <f t="shared" ref="J7:J46" si="2">(I7*$C$11)/(I7+$C$11)</f>
         <v>5334.4469562449885</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K46" si="2">$C$12*J7/(J7+$C$10)</f>
+        <f t="shared" ref="K7:K46" si="3">$C$12*J7/(J7+$C$10)</f>
         <v>2.4001366511512687</v>
       </c>
-      <c r="L7" s="4">
-        <f t="shared" ref="L7:L46" si="3">((2^12)/3.3)*K7</f>
+      <c r="L7" s="3">
+        <f t="shared" ref="L7:L46" si="4">((2^12)/3.3)*K7</f>
         <v>2979.0787039744232</v>
       </c>
       <c r="M7">
@@ -3546,53 +3552,53 @@
         <v>2.6812629260808851E-2</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N41" si="4">$C$14*K7+$C$15</f>
+        <f t="shared" ref="N7:N41" si="5">$C$14*K7+$C$15</f>
         <v>21.334071361546094</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:O46" si="5">(G7-N7)/G7*100</f>
+        <f t="shared" ref="O7:O46" si="6">(G7-N7)/G7*100</f>
         <v>3.026948356608663</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="G8">
         <v>24</v>
       </c>
       <c r="H8">
+        <f t="shared" si="1"/>
+        <v>297.14999999999998</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
-        <v>297.14999999999998</v>
-      </c>
-      <c r="I8">
-        <f>$C$4*EXP($C$5 * ((1/H8) - (1/$C$7)))</f>
         <v>10453.575981239928</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5110.8793840392391</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3718447545581967</v>
       </c>
-      <c r="L8" s="4">
-        <f t="shared" si="3"/>
+      <c r="L8" s="3">
+        <f t="shared" si="4"/>
         <v>2943.9624589910222</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M46" si="6">K7-K8</f>
+        <f t="shared" ref="M8:M46" si="7">K7-K8</f>
         <v>2.8291896593072074E-2</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.741744165339696</v>
       </c>
       <c r="O8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.2427326444179325</v>
       </c>
     </row>
@@ -3610,35 +3616,35 @@
         <v>26</v>
       </c>
       <c r="H9">
+        <f t="shared" si="1"/>
+        <v>299.14999999999998</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="0"/>
-        <v>299.14999999999998</v>
-      </c>
-      <c r="I9">
-        <f>$C$4*EXP($C$5 * ((1/H9) - (1/$C$7)))</f>
         <v>9568.941890213262</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4889.8616715699081</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3420707534326826</v>
       </c>
-      <c r="L9" s="4">
-        <f t="shared" si="3"/>
+      <c r="L9" s="3">
+        <f t="shared" si="4"/>
         <v>2907.0066078970508</v>
       </c>
       <c r="M9">
+        <f t="shared" si="7"/>
+        <v>2.9774001125514094E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>24.223159577227264</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="6"/>
-        <v>2.9774001125514094E-2</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="4"/>
-        <v>24.223159577227264</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="5"/>
         <v>6.834001626048984</v>
       </c>
     </row>
@@ -3656,35 +3662,35 @@
         <v>28</v>
       </c>
       <c r="H10">
+        <f t="shared" si="1"/>
+        <v>301.14999999999998</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="0"/>
-        <v>301.14999999999998</v>
-      </c>
-      <c r="I10">
-        <f>$C$4*EXP($C$5 * ((1/H10) - (1/$C$7)))</f>
         <v>8769.4632379023169</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4672.1971357143593</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3108205939131965</v>
       </c>
-      <c r="L10" s="4">
-        <f t="shared" si="3"/>
+      <c r="L10" s="3">
+        <f t="shared" si="4"/>
         <v>2868.2185311116523</v>
       </c>
       <c r="M10">
+        <f t="shared" si="7"/>
+        <v>3.1250159519486065E-2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>25.778021745094946</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="6"/>
-        <v>3.1250159519486065E-2</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="4"/>
-        <v>25.778021745094946</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="5"/>
         <v>7.9356366246609049</v>
       </c>
     </row>
@@ -3702,35 +3708,35 @@
         <v>30</v>
       </c>
       <c r="H11">
+        <f t="shared" si="1"/>
+        <v>303.14999999999998</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
-        <v>303.14999999999998</v>
-      </c>
-      <c r="I11">
-        <f>$C$4*EXP($C$5 * ((1/H11) - (1/$C$7)))</f>
         <v>8046.0378071262749</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4458.6173946443478</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2781094626424392</v>
       </c>
-      <c r="L11" s="4">
-        <f t="shared" si="3"/>
+      <c r="L11" s="3">
+        <f t="shared" si="4"/>
         <v>2827.6170784798278</v>
       </c>
       <c r="M11">
+        <f t="shared" si="7"/>
+        <v>3.271113127075731E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>27.405575052441733</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="6"/>
-        <v>3.271113127075731E-2</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="4"/>
-        <v>27.405575052441733</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="5"/>
         <v>8.6480831585275553</v>
       </c>
     </row>
@@ -3748,77 +3754,77 @@
         <v>32</v>
       </c>
       <c r="H12">
+        <f t="shared" si="1"/>
+        <v>305.14999999999998</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="0"/>
-        <v>305.14999999999998</v>
-      </c>
-      <c r="I12">
-        <f>$C$4*EXP($C$5 * ((1/H12) - (1/$C$7)))</f>
         <v>7390.6265524301107</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4249.7758951631149</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2439621338890032</v>
       </c>
-      <c r="L12" s="4">
-        <f t="shared" si="3"/>
+      <c r="L12" s="3">
+        <f t="shared" si="4"/>
         <v>2785.2330001240475</v>
       </c>
       <c r="M12">
+        <f t="shared" si="7"/>
+        <v>3.4147328753435957E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>29.104586847224752</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="6"/>
-        <v>3.4147328753435957E-2</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="4"/>
-        <v>29.104586847224752</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="5"/>
         <v>9.0481661024226501</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="G13">
         <v>34</v>
       </c>
       <c r="H13">
+        <f t="shared" si="1"/>
+        <v>307.14999999999998</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="0"/>
-        <v>307.14999999999998</v>
-      </c>
-      <c r="I13">
-        <f>$C$4*EXP($C$5 * ((1/H13) - (1/$C$7)))</f>
         <v>6796.1194663514834</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4046.2438243348374</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.208413191436903</v>
       </c>
-      <c r="L13" s="4">
-        <f t="shared" si="3"/>
+      <c r="L13" s="3">
+        <f t="shared" si="4"/>
         <v>2741.1092218562289</v>
       </c>
       <c r="M13">
+        <f t="shared" si="7"/>
+        <v>3.5548942452100274E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>30.873336401671352</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="6"/>
-        <v>3.5548942452100274E-2</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="4"/>
-        <v>30.873336401671352</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="5"/>
         <v>9.1960694068489648</v>
       </c>
     </row>
@@ -3837,35 +3843,35 @@
         <v>36</v>
       </c>
       <c r="H14">
+        <f t="shared" si="1"/>
+        <v>309.14999999999998</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="0"/>
-        <v>309.14999999999998</v>
-      </c>
-      <c r="I14">
-        <f>$C$4*EXP($C$5 * ((1/H14) - (1/$C$7)))</f>
         <v>6256.2195633541796</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3848.5082826128614</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1715071123997101</v>
       </c>
-      <c r="L14" s="4">
-        <f t="shared" si="3"/>
+      <c r="L14" s="3">
+        <f t="shared" si="4"/>
         <v>2695.3009492088522</v>
       </c>
       <c r="M14">
+        <f t="shared" si="7"/>
+        <v>3.6906079037192896E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>32.70961074207861</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="6"/>
-        <v>3.6906079037192896E-2</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="4"/>
-        <v>32.70961074207861</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="5"/>
         <v>9.1399701608927497</v>
       </c>
     </row>
@@ -3884,35 +3890,35 @@
         <v>38</v>
       </c>
       <c r="H15">
+        <f t="shared" si="1"/>
+        <v>311.14999999999998</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="0"/>
-        <v>311.14999999999998</v>
-      </c>
-      <c r="I15">
-        <f>$C$4*EXP($C$5 * ((1/H15) - (1/$C$7)))</f>
         <v>5765.3423797774158</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3656.972516608811</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1332982031249981</v>
       </c>
-      <c r="L15" s="4">
-        <f t="shared" si="3"/>
+      <c r="L15" s="3">
+        <f t="shared" si="4"/>
         <v>2647.8755878787856</v>
       </c>
       <c r="M15">
+        <f t="shared" si="7"/>
+        <v>3.8208909274711989E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>34.610707837909217</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="6"/>
-        <v>3.8208909274711989E-2</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="4"/>
-        <v>34.610707837909217</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="5"/>
         <v>8.9191899002389032</v>
       </c>
     </row>
@@ -3921,35 +3927,35 @@
         <v>40</v>
       </c>
       <c r="H16">
+        <f t="shared" si="1"/>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="0"/>
-        <v>313.14999999999998</v>
-      </c>
-      <c r="I16">
-        <f>$C$4*EXP($C$5 * ((1/H16) - (1/$C$7)))</f>
         <v>5318.528783060442</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3471.9579526082066</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0938503809492701</v>
       </c>
-      <c r="L16" s="4">
-        <f t="shared" si="3"/>
+      <c r="L16" s="3">
+        <f t="shared" si="4"/>
         <v>2598.9124728388515</v>
       </c>
       <c r="M16">
+        <f t="shared" si="7"/>
+        <v>3.9447822175727953E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>36.573447460648268</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="6"/>
-        <v>3.9447822175727953E-2</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="4"/>
-        <v>36.573447460648268</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="5"/>
         <v>8.5663813483793305</v>
       </c>
     </row>
@@ -3958,35 +3964,35 @@
         <v>42</v>
       </c>
       <c r="H17">
+        <f t="shared" si="1"/>
+        <v>315.14999999999998</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="0"/>
-        <v>315.14999999999998</v>
-      </c>
-      <c r="I17">
-        <f>$C$4*EXP($C$5 * ((1/H17) - (1/$C$7)))</f>
         <v>4911.3692153476231</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3293.7077369746603</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0532367996250804</v>
       </c>
-      <c r="L17" s="4">
-        <f t="shared" si="3"/>
+      <c r="L17" s="3">
+        <f t="shared" si="4"/>
         <v>2548.5024034134331</v>
       </c>
       <c r="M17">
+        <f t="shared" si="7"/>
+        <v>4.0613581324189685E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>38.594189820802413</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="6"/>
-        <v>4.0613581324189685E-2</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="4"/>
-        <v>38.594189820802413</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="5"/>
         <v>8.1090718552323491</v>
       </c>
     </row>
@@ -3995,35 +4001,35 @@
         <v>44</v>
       </c>
       <c r="H18">
+        <f t="shared" si="1"/>
+        <v>317.14999999999998</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="0"/>
-        <v>317.14999999999998</v>
-      </c>
-      <c r="I18">
-        <f>$C$4*EXP($C$5 * ((1/H18) - (1/$C$7)))</f>
         <v>4539.9377759118415</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3122.3914750399467</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0115393206161523</v>
       </c>
-      <c r="L18" s="4">
-        <f t="shared" si="3"/>
+      <c r="L18" s="3">
+        <f t="shared" si="4"/>
         <v>2496.7469870435634</v>
       </c>
       <c r="M18">
+        <f t="shared" si="7"/>
+        <v>4.1697479008928173E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>40.668861873788643</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="6"/>
-        <v>4.1697479008928173E-2</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="4"/>
-        <v>40.668861873788643</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="5"/>
         <v>7.5707684686621759</v>
       </c>
     </row>
@@ -4032,35 +4038,35 @@
         <v>46</v>
       </c>
       <c r="H19">
+        <f t="shared" si="1"/>
+        <v>319.14999999999998</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="0"/>
-        <v>319.14999999999998</v>
-      </c>
-      <c r="I19">
-        <f>$C$4*EXP($C$5 * ((1/H19) - (1/$C$7)))</f>
         <v>4200.7347823645823</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2958.1108630951508</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9688478369602482</v>
       </c>
-      <c r="L19" s="4">
-        <f t="shared" si="3"/>
+      <c r="L19" s="3">
+        <f t="shared" si="4"/>
         <v>2443.7578000573262</v>
       </c>
       <c r="M19">
+        <f t="shared" si="7"/>
+        <v>4.2691483655904028E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>42.79299096136387</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="6"/>
-        <v>4.2691483655904028E-2</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="4"/>
-        <v>42.79299096136387</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="5"/>
         <v>6.9717587796437606</v>
       </c>
     </row>
@@ -4069,35 +4075,35 @@
         <v>48</v>
       </c>
       <c r="H20">
+        <f t="shared" si="1"/>
+        <v>321.14999999999998</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="0"/>
-        <v>321.14999999999998</v>
-      </c>
-      <c r="I20">
-        <f>$C$4*EXP($C$5 * ((1/H20) - (1/$C$7)))</f>
         <v>3890.6366495479328</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2800.9059251251474</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9252594608322897</v>
       </c>
-      <c r="L20" s="4">
-        <f t="shared" si="3"/>
+      <c r="L20" s="3">
+        <f t="shared" si="4"/>
         <v>2389.6553792633513</v>
       </c>
       <c r="M20">
+        <f t="shared" si="7"/>
+        <v>4.3588376127958517E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>44.961745234694519</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="6"/>
-        <v>4.3588376127958517E-2</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="4"/>
-        <v>44.961745234694519</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="5"/>
         <v>6.3296974277197533</v>
       </c>
     </row>
@@ -4106,35 +4112,35 @@
         <v>50</v>
       </c>
       <c r="H21">
+        <f t="shared" si="1"/>
+        <v>323.14999999999998</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="0"/>
-        <v>323.14999999999998</v>
-      </c>
-      <c r="I21">
-        <f>$C$4*EXP($C$5 * ((1/H21) - (1/$C$7)))</f>
         <v>3606.8520932929287</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2650.761593176142</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8808775900953749</v>
       </c>
-      <c r="L21" s="4">
-        <f t="shared" si="3"/>
+      <c r="L21" s="3">
+        <f t="shared" si="4"/>
         <v>2334.5680633426232</v>
       </c>
       <c r="M21">
+        <f t="shared" si="7"/>
+        <v>4.4381870736914797E-2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>47.169980098423537</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="6"/>
-        <v>4.4381870736914797E-2</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="4"/>
-        <v>47.169980098423537</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="5"/>
         <v>5.6600398031529267</v>
       </c>
     </row>
@@ -4143,35 +4149,35 @@
         <v>52</v>
       </c>
       <c r="H22">
+        <f t="shared" si="1"/>
+        <v>325.14999999999998</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="0"/>
-        <v>325.14999999999998</v>
-      </c>
-      <c r="I22">
-        <f>$C$4*EXP($C$5 * ((1/H22) - (1/$C$7)))</f>
         <v>3346.8838088272773</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2507.6144040556769</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8358108728063067</v>
       </c>
-      <c r="L22" s="4">
-        <f t="shared" si="3"/>
+      <c r="L22" s="3">
+        <f t="shared" si="4"/>
         <v>2278.6307075801915</v>
       </c>
       <c r="M22">
+        <f t="shared" si="7"/>
+        <v>4.5066717289068192E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>49.412289732045295</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="6"/>
-        <v>4.5066717289068192E-2</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="4"/>
-        <v>49.412289732045295</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="5"/>
         <v>4.9763658999128939</v>
       </c>
     </row>
@@ -4180,35 +4186,35 @@
         <v>54</v>
       </c>
       <c r="H23">
+        <f t="shared" si="1"/>
+        <v>327.14999999999998</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="0"/>
-        <v>327.14999999999998</v>
-      </c>
-      <c r="I23">
-        <f>$C$4*EXP($C$5 * ((1/H23) - (1/$C$7)))</f>
         <v>3108.4948946380009</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2371.3591221746774</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7901720916682289</v>
       </c>
-      <c r="L23" s="4">
-        <f t="shared" si="3"/>
+      <c r="L23" s="3">
+        <f t="shared" si="4"/>
         <v>2221.9832992342622</v>
       </c>
       <c r="M23">
+        <f t="shared" si="7"/>
+        <v>4.5638781138077844E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>51.68306259433875</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="6"/>
-        <v>4.5638781138077844E-2</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="4"/>
-        <v>51.68306259433875</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="5"/>
         <v>4.2906248252986101</v>
       </c>
     </row>
@@ -4217,35 +4223,35 @@
         <v>56</v>
       </c>
       <c r="H24">
+        <f t="shared" si="1"/>
+        <v>329.15</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="0"/>
-        <v>329.15</v>
-      </c>
-      <c r="I24">
-        <f>$C$4*EXP($C$5 * ((1/H24) - (1/$C$7)))</f>
         <v>2889.6793954654631</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2241.8551360416618</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.744076992653061</v>
       </c>
-      <c r="L24" s="4">
-        <f t="shared" si="3"/>
+      <c r="L24" s="3">
+        <f t="shared" si="4"/>
         <v>2164.7695036081632</v>
       </c>
       <c r="M24">
+        <f t="shared" si="7"/>
+        <v>4.609509901516784E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="5"/>
+        <v>53.976539705651049</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="6"/>
-        <v>4.609509901516784E-2</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="4"/>
-        <v>53.976539705651049</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="5"/>
         <v>3.6133219541945545</v>
       </c>
     </row>
@@ -4254,35 +4260,35 @@
         <v>58</v>
       </c>
       <c r="H25">
+        <f t="shared" si="1"/>
+        <v>331.15</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="0"/>
-        <v>331.15</v>
-      </c>
-      <c r="I25">
-        <f>$C$4*EXP($C$5 * ((1/H25) - (1/$C$7)))</f>
         <v>2688.6364256810443</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2118.9325121172233</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6976430833513578</v>
       </c>
-      <c r="L25" s="4">
-        <f t="shared" si="3"/>
+      <c r="L25" s="3">
+        <f t="shared" si="4"/>
         <v>2107.1351725476247</v>
       </c>
       <c r="M25">
+        <f t="shared" si="7"/>
+        <v>4.6433909301703213E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="5"/>
+        <v>56.286874436403323</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="6"/>
-        <v>4.6433909301703213E-2</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="4"/>
-        <v>56.286874436403323</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="5"/>
         <v>2.9536647648218564</v>
       </c>
     </row>
@@ -4291,35 +4297,35 @@
         <v>60</v>
       </c>
       <c r="H26">
+        <f t="shared" si="1"/>
+        <v>333.15</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="0"/>
-        <v>333.15</v>
-      </c>
-      <c r="I26">
-        <f>$C$4*EXP($C$5 * ((1/H26) - (1/$C$7)))</f>
         <v>2503.7474089688931</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2002.3976229501918</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6509884269981403</v>
       </c>
-      <c r="L26" s="4">
-        <f t="shared" si="3"/>
+      <c r="L26" s="3">
+        <f t="shared" si="4"/>
         <v>2049.2268475710252</v>
       </c>
       <c r="M26">
+        <f t="shared" si="7"/>
+        <v>4.6654656353217527E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="5"/>
+        <v>58.60819251073994</v>
+      </c>
+      <c r="O26" s="1">
         <f t="shared" si="6"/>
-        <v>4.6654656353217527E-2</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="4"/>
-        <v>58.60819251073994</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="5"/>
         <v>2.3196791487667667</v>
       </c>
     </row>
@@ -4328,35 +4334,35 @@
         <v>62</v>
       </c>
       <c r="H27">
+        <f t="shared" si="1"/>
+        <v>335.15</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="0"/>
-        <v>335.15</v>
-      </c>
-      <c r="I27">
-        <f>$C$4*EXP($C$5 * ((1/H27) - (1/$C$7)))</f>
         <v>2333.5560339886351</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1892.0382958149744</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6042304575736475</v>
       </c>
-      <c r="L27" s="4">
-        <f t="shared" si="3"/>
+      <c r="L27" s="3">
+        <f t="shared" si="4"/>
         <v>1991.1902891580789</v>
       </c>
       <c r="M27">
+        <f t="shared" si="7"/>
+        <v>4.675796942449284E-2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="5"/>
+        <v>60.934650961587977</v>
+      </c>
+      <c r="O27" s="1">
         <f t="shared" si="6"/>
-        <v>4.675796942449284E-2</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="4"/>
-        <v>60.934650961587977</v>
-      </c>
-      <c r="O27" s="1">
-        <f t="shared" si="5"/>
         <v>1.7183049006645537</v>
       </c>
     </row>
@@ -4365,35 +4371,35 @@
         <v>64</v>
       </c>
       <c r="H28">
+        <f t="shared" si="1"/>
+        <v>337.15</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="0"/>
-        <v>337.15</v>
-      </c>
-      <c r="I28">
-        <f>$C$4*EXP($C$5 * ((1/H28) - (1/$C$7)))</f>
         <v>2176.7505802157325</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1787.6284529900977</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5574848399426005</v>
       </c>
-      <c r="L28" s="4">
-        <f t="shared" si="3"/>
+      <c r="L28" s="3">
+        <f t="shared" si="4"/>
         <v>1933.1690619408762</v>
       </c>
       <c r="M28">
+        <f t="shared" si="7"/>
+        <v>4.674561763104701E-2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>63.260494844810466</v>
+      </c>
+      <c r="O28" s="1">
         <f t="shared" si="6"/>
-        <v>4.674561763104701E-2</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="4"/>
-        <v>63.260494844810466</v>
-      </c>
-      <c r="O28" s="1">
-        <f t="shared" si="5"/>
         <v>1.1554768049836461</v>
       </c>
     </row>
@@ -4402,35 +4408,35 @@
         <v>66</v>
       </c>
       <c r="H29">
+        <f t="shared" si="1"/>
+        <v>339.15</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="0"/>
-        <v>339.15</v>
-      </c>
-      <c r="I29">
-        <f>$C$4*EXP($C$5 * ((1/H29) - (1/$C$7)))</f>
         <v>2032.1483148439468</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1688.9322352658373</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5108643967745909</v>
       </c>
-      <c r="L29" s="4">
-        <f t="shared" si="3"/>
+      <c r="L29" s="3">
+        <f t="shared" si="4"/>
         <v>1875.303202784462</v>
       </c>
       <c r="M29">
+        <f t="shared" si="7"/>
+        <v>4.6620443168009507E-2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>65.580110630642309</v>
+      </c>
+      <c r="O29" s="1">
         <f t="shared" si="6"/>
-        <v>4.6620443168009507E-2</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="4"/>
-        <v>65.580110630642309</v>
-      </c>
-      <c r="O29" s="1">
-        <f t="shared" si="5"/>
         <v>0.63619601417831906</v>
       </c>
     </row>
@@ -4439,35 +4445,35 @@
         <v>68</v>
       </c>
       <c r="H30">
+        <f t="shared" si="1"/>
+        <v>341.15</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="0"/>
-        <v>341.15</v>
-      </c>
-      <c r="I30">
-        <f>$C$4*EXP($C$5 * ((1/H30) - (1/$C$7)))</f>
         <v>1898.6817016721084</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1595.7076164204718</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4644781211186735</v>
       </c>
-      <c r="L30" s="4">
-        <f t="shared" si="3"/>
+      <c r="L30" s="3">
+        <f t="shared" si="4"/>
         <v>1817.7279951824505</v>
       </c>
       <c r="M30">
+        <f t="shared" si="7"/>
+        <v>4.6386275655917464E-2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>67.888075333372697</v>
+      </c>
+      <c r="O30" s="1">
         <f t="shared" si="6"/>
-        <v>4.6386275655917464E-2</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="4"/>
-        <v>67.888075333372697</v>
-      </c>
-      <c r="O30" s="1">
-        <f t="shared" si="5"/>
         <v>0.16459509798132768</v>
       </c>
     </row>
@@ -4476,35 +4482,35 @@
         <v>70</v>
       </c>
       <c r="H31">
+        <f t="shared" si="1"/>
+        <v>343.15</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="0"/>
-        <v>343.15</v>
-      </c>
-      <c r="I31">
-        <f>$C$4*EXP($C$5 * ((1/H31) - (1/$C$7)))</f>
         <v>1775.3861972799159</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1507.7095286182848</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4184302901501102</v>
       </c>
-      <c r="L31" s="4">
-        <f t="shared" si="3"/>
+      <c r="L31" s="3">
+        <f t="shared" si="4"/>
         <v>1760.572869228743</v>
       </c>
       <c r="M31">
+        <f t="shared" si="7"/>
+        <v>4.6047830968563241E-2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="5"/>
+        <v>70.179200607172973</v>
+      </c>
+      <c r="O31" s="1">
         <f t="shared" si="6"/>
-        <v>4.6047830968563241E-2</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="4"/>
-        <v>70.179200607172973</v>
-      </c>
-      <c r="O31" s="1">
-        <f t="shared" si="5"/>
         <v>-0.25600086738996147</v>
       </c>
     </row>
@@ -4513,35 +4519,35 @@
         <v>72</v>
       </c>
       <c r="H32">
+        <f t="shared" si="1"/>
+        <v>345.15</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="0"/>
-        <v>345.15</v>
-      </c>
-      <c r="I32">
-        <f>$C$4*EXP($C$5 * ((1/H32) - (1/$C$7)))</f>
         <v>1661.3894393641399</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1424.6925274238422</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3728196919433464</v>
       </c>
-      <c r="L32" s="4">
-        <f t="shared" si="3"/>
+      <c r="L32" s="3">
+        <f t="shared" si="4"/>
         <v>1703.9604418787719</v>
       </c>
       <c r="M32">
+        <f t="shared" si="7"/>
+        <v>4.561059820676383E-2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>72.448571218266636</v>
+      </c>
+      <c r="O32" s="1">
         <f t="shared" si="6"/>
-        <v>4.561059820676383E-2</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="4"/>
-        <v>72.448571218266636</v>
-      </c>
-      <c r="O32" s="1">
-        <f t="shared" si="5"/>
         <v>-0.62301558092588361</v>
       </c>
     </row>
@@ -4550,35 +4556,35 @@
         <v>74</v>
       </c>
       <c r="H33">
+        <f t="shared" si="1"/>
+        <v>347.15</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="0"/>
-        <v>347.15</v>
-      </c>
-      <c r="I33">
-        <f>$C$4*EXP($C$5 * ((1/H33) - (1/$C$7)))</f>
         <v>1555.9016575663679</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1346.4130309101604</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3277389733314162</v>
       </c>
-      <c r="L33" s="4">
-        <f t="shared" si="3"/>
+      <c r="L33" s="3">
+        <f t="shared" si="4"/>
         <v>1648.0057075046911</v>
       </c>
       <c r="M33">
+        <f t="shared" si="7"/>
+        <v>4.5080718611930193E-2</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="5"/>
+        <v>74.691577492403297</v>
+      </c>
+      <c r="O33" s="1">
         <f t="shared" si="6"/>
-        <v>4.5080718611930193E-2</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="4"/>
-        <v>74.691577492403297</v>
-      </c>
-      <c r="O33" s="1">
-        <f t="shared" si="5"/>
         <v>-0.93456417892337473</v>
       </c>
     </row>
@@ -4587,35 +4593,35 @@
         <v>76</v>
       </c>
       <c r="H34">
+        <f t="shared" si="1"/>
+        <v>349.15</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="0"/>
-        <v>349.15</v>
-      </c>
-      <c r="I34">
-        <f>$C$4*EXP($C$5 * ((1/H34) - (1/$C$7)))</f>
         <v>1458.2071590754961</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1272.6311706805893</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2832741131572618</v>
       </c>
-      <c r="L34" s="4">
-        <f t="shared" si="3"/>
+      <c r="L34" s="3">
+        <f t="shared" si="4"/>
         <v>1592.8153840885286</v>
       </c>
       <c r="M34">
+        <f t="shared" si="7"/>
+        <v>4.4464860174154408E-2</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="5"/>
+        <v>76.903941523415966</v>
+      </c>
+      <c r="O34" s="1">
         <f t="shared" si="6"/>
-        <v>4.4464860174154408E-2</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="4"/>
-        <v>76.903941523415966</v>
-      </c>
-      <c r="O34" s="1">
-        <f t="shared" si="5"/>
         <v>-1.1893967413367976</v>
       </c>
     </row>
@@ -4624,35 +4630,35 @@
         <v>78</v>
       </c>
       <c r="H35">
+        <f t="shared" si="1"/>
+        <v>351.15</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="0"/>
-        <v>351.15</v>
-      </c>
-      <c r="I35">
-        <f>$C$4*EXP($C$5 * ((1/H35) - (1/$C$7)))</f>
         <v>1367.6567602411242</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1203.1122940169723</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2395040216579341</v>
       </c>
-      <c r="L35" s="4">
-        <f t="shared" si="3"/>
+      <c r="L35" s="3">
+        <f t="shared" si="4"/>
         <v>1538.4874159729993</v>
       </c>
       <c r="M35">
+        <f t="shared" si="7"/>
+        <v>4.3770091499327757E-2</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="5"/>
+        <v>79.081737105994506</v>
+      </c>
+      <c r="O35" s="1">
         <f t="shared" si="6"/>
-        <v>4.3770091499327757E-2</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="4"/>
-        <v>79.081737105994506</v>
-      </c>
-      <c r="O35" s="1">
-        <f t="shared" si="5"/>
         <v>-1.3868424435827</v>
       </c>
     </row>
@@ -4661,35 +4667,35 @@
         <v>80</v>
       </c>
       <c r="H36">
+        <f t="shared" si="1"/>
+        <v>353.15</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="0"/>
-        <v>353.15</v>
-      </c>
-      <c r="I36">
-        <f>$C$4*EXP($C$5 * ((1/H36) - (1/$C$7)))</f>
         <v>1283.6610518180785</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1137.6281562545239</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1965002634733468</v>
       </c>
-      <c r="L36" s="4">
-        <f t="shared" si="3"/>
+      <c r="L36" s="3">
+        <f t="shared" si="4"/>
         <v>1485.1106300566148</v>
       </c>
       <c r="M36">
+        <f t="shared" si="7"/>
+        <v>4.3003758184587237E-2</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="5"/>
+        <v>81.221403517477967</v>
+      </c>
+      <c r="O36" s="1">
         <f t="shared" si="6"/>
-        <v>4.3003758184587237E-2</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="4"/>
-        <v>81.221403517477967</v>
-      </c>
-      <c r="O36" s="1">
-        <f t="shared" si="5"/>
         <v>-1.5267543968474584</v>
       </c>
     </row>
@@ -4698,35 +4704,35 @@
         <v>82</v>
       </c>
       <c r="H37">
+        <f t="shared" si="1"/>
+        <v>355.15</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="0"/>
-        <v>355.15</v>
-      </c>
-      <c r="I37">
-        <f>$C$4*EXP($C$5 * ((1/H37) - (1/$C$7)))</f>
         <v>1205.6843996441166</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1075.9578412563612</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1543268989329647</v>
       </c>
-      <c r="L37" s="4">
-        <f t="shared" si="3"/>
+      <c r="L37" s="3">
+        <f t="shared" si="4"/>
         <v>1432.764538796795</v>
       </c>
       <c r="M37">
+        <f t="shared" si="7"/>
+        <v>4.2173364540382119E-2</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="5"/>
+        <v>83.319753414688705</v>
+      </c>
+      <c r="O37" s="1">
         <f t="shared" si="6"/>
-        <v>4.2173364540382119E-2</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="4"/>
-        <v>83.319753414688705</v>
-      </c>
-      <c r="O37" s="1">
-        <f t="shared" si="5"/>
         <v>-1.6094553837667134</v>
       </c>
     </row>
@@ -4735,35 +4741,35 @@
         <v>84</v>
       </c>
       <c r="H38">
+        <f t="shared" si="1"/>
+        <v>357.15</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="0"/>
-        <v>357.15</v>
-      </c>
-      <c r="I38">
-        <f>$C$4*EXP($C$5 * ((1/H38) - (1/$C$7)))</f>
         <v>1133.2395948434664</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1017.8884458467453</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1130404359104127</v>
       </c>
-      <c r="L38" s="4">
-        <f t="shared" si="3"/>
+      <c r="L38" s="3">
+        <f t="shared" si="4"/>
         <v>1381.5192804512274</v>
       </c>
       <c r="M38">
+        <f t="shared" si="7"/>
+        <v>4.1286463022552011E-2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="5"/>
+        <v>85.373975229422342</v>
+      </c>
+      <c r="O38" s="1">
         <f t="shared" si="6"/>
-        <v>4.1286463022552011E-2</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="4"/>
-        <v>85.373975229422342</v>
-      </c>
-      <c r="O38" s="1">
-        <f t="shared" si="5"/>
         <v>-1.6356847969313599</v>
       </c>
     </row>
@@ -4772,35 +4778,35 @@
         <v>86</v>
       </c>
       <c r="H39">
+        <f t="shared" si="1"/>
+        <v>359.15</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="0"/>
-        <v>359.15</v>
-      </c>
-      <c r="I39">
-        <f>$C$4*EXP($C$5 * ((1/H39) - (1/$C$7)))</f>
         <v>1065.883078313675</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>963.21556153302902</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0726898826808708</v>
       </c>
-      <c r="L39" s="4">
-        <f t="shared" si="3"/>
+      <c r="L39" s="3">
+        <f t="shared" si="4"/>
         <v>1331.4356846851051</v>
       </c>
       <c r="M39">
+        <f t="shared" si="7"/>
+        <v>4.0350553229541841E-2</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="5"/>
+        <v>87.381630538510422</v>
+      </c>
+      <c r="O39" s="1">
         <f t="shared" si="6"/>
-        <v>4.0350553229541841E-2</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="4"/>
-        <v>87.381630538510422</v>
-      </c>
-      <c r="O39" s="1">
-        <f t="shared" si="5"/>
         <v>-1.6065471378028158</v>
       </c>
     </row>
@@ -4809,35 +4815,35 @@
         <v>88</v>
       </c>
       <c r="H40">
+        <f t="shared" si="1"/>
+        <v>361.15</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="0"/>
-        <v>361.15</v>
-      </c>
-      <c r="I40">
-        <f>$C$4*EXP($C$5 * ((1/H40) - (1/$C$7)))</f>
         <v>1003.2106735185798</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>911.7435840186231</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0333168908743486</v>
       </c>
-      <c r="L40" s="4">
-        <f t="shared" si="3"/>
+      <c r="L40" s="3">
+        <f t="shared" si="4"/>
         <v>1282.5654500064643</v>
       </c>
       <c r="M40">
+        <f t="shared" si="7"/>
+        <v>3.9372991806522206E-2</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="5"/>
+        <v>89.340646951132314</v>
+      </c>
+      <c r="O40" s="1">
         <f t="shared" si="6"/>
-        <v>3.9372991806522206E-2</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="4"/>
-        <v>89.340646951132314</v>
-      </c>
-      <c r="O40" s="1">
-        <f t="shared" si="5"/>
         <v>-1.5234624444685385</v>
       </c>
     </row>
@@ -4846,35 +4852,35 @@
         <v>90</v>
       </c>
       <c r="H41">
+        <f t="shared" si="1"/>
+        <v>363.15</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="0"/>
-        <v>363.15</v>
-      </c>
-      <c r="I41">
-        <f>$C$4*EXP($C$5 * ((1/H41) - (1/$C$7)))</f>
         <v>944.85376966921251</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>863.28587805131451</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99495597677036507</v>
       </c>
-      <c r="L41" s="4">
-        <f t="shared" si="3"/>
+      <c r="L41" s="3">
+        <f t="shared" si="4"/>
         <v>1234.9514184398229</v>
       </c>
       <c r="M41">
+        <f t="shared" si="7"/>
+        <v>3.8360914103983568E-2</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="5"/>
+        <v>91.249307098224165</v>
+      </c>
+      <c r="O41" s="1">
         <f t="shared" si="6"/>
-        <v>3.8360914103983568E-2</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="4"/>
-        <v>91.249307098224165</v>
-      </c>
-      <c r="O41" s="1">
-        <f t="shared" si="5"/>
         <v>-1.3881189980268498</v>
       </c>
     </row>
@@ -4883,27 +4889,27 @@
         <v>92</v>
       </c>
       <c r="H42">
+        <f t="shared" si="1"/>
+        <v>365.15</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="0"/>
-        <v>365.15</v>
-      </c>
-      <c r="I42">
-        <f>$C$4*EXP($C$5 * ((1/H42) - (1/$C$7)))</f>
         <v>890.47590439250496</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>817.66482218958424</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95763480878779816</v>
       </c>
-      <c r="L42" s="4">
-        <f t="shared" si="3"/>
+      <c r="L42" s="3">
+        <f t="shared" si="4"/>
         <v>1188.627932362067</v>
       </c>
       <c r="M42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.7321167982566905E-2</v>
       </c>
       <c r="N42">
@@ -4911,7 +4917,7 @@
         <v>93.106234328324973</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.202428617744536</v>
       </c>
     </row>
@@ -4920,35 +4926,35 @@
         <v>94</v>
       </c>
       <c r="H43">
+        <f t="shared" si="1"/>
+        <v>367.15</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="0"/>
-        <v>367.15</v>
-      </c>
-      <c r="I43">
-        <f>$C$4*EXP($C$5 * ((1/H43) - (1/$C$7)))</f>
         <v>839.7697011063201</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>774.7117551958803</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92137454903524774</v>
       </c>
-      <c r="L43" s="4">
-        <f t="shared" si="3"/>
+      <c r="L43" s="3">
+        <f t="shared" si="4"/>
         <v>1143.6212584389016</v>
       </c>
       <c r="M43">
+        <f t="shared" si="7"/>
+        <v>3.6260259752550428E-2</v>
+      </c>
+      <c r="N43">
+        <f t="shared" ref="N43:N46" si="8">$C$14*K43+$C$15</f>
+        <v>94.910375713623822</v>
+      </c>
+      <c r="O43" s="1">
         <f t="shared" si="6"/>
-        <v>3.6260259752550428E-2</v>
-      </c>
-      <c r="N43">
-        <f t="shared" ref="N7:N46" si="7">$C$14*K43+$C$15</f>
-        <v>94.910375713623822</v>
-      </c>
-      <c r="O43" s="1">
-        <f t="shared" si="5"/>
         <v>-0.96848480172746965</v>
       </c>
     </row>
@@ -4957,35 +4963,35 @@
         <v>96</v>
       </c>
       <c r="H44">
+        <f t="shared" si="1"/>
+        <v>369.15</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="0"/>
-        <v>369.15</v>
-      </c>
-      <c r="I44">
-        <f>$C$4*EXP($C$5 * ((1/H44) - (1/$C$7)))</f>
         <v>792.45412165987295</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>734.26684304310379</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88619023714067113</v>
       </c>
-      <c r="L44" s="4">
-        <f t="shared" si="3"/>
+      <c r="L44" s="3">
+        <f t="shared" si="4"/>
         <v>1099.9500640388451</v>
       </c>
       <c r="M44">
+        <f t="shared" si="7"/>
+        <v>3.5184311894576603E-2</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="8"/>
+        <v>96.66098295238757</v>
+      </c>
+      <c r="O44" s="1">
         <f t="shared" si="6"/>
-        <v>3.5184311894576603E-2</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="7"/>
-        <v>96.66098295238757</v>
-      </c>
-      <c r="O44" s="1">
-        <f t="shared" si="5"/>
         <v>-0.68852390873705249</v>
       </c>
     </row>
@@ -4994,35 +5000,35 @@
         <v>98</v>
       </c>
       <c r="H45">
+        <f t="shared" si="1"/>
+        <v>371.15</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="0"/>
-        <v>371.15</v>
-      </c>
-      <c r="I45">
-        <f>$C$4*EXP($C$5 * ((1/H45) - (1/$C$7)))</f>
         <v>748.27199946526787</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>696.17888298927937</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.85209120520871495</v>
       </c>
-      <c r="L45" s="4">
-        <f t="shared" si="3"/>
+      <c r="L45" s="3">
+        <f t="shared" si="4"/>
         <v>1057.6259322833021</v>
       </c>
       <c r="M45">
+        <f t="shared" si="7"/>
+        <v>3.4099031931956181E-2</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="8"/>
+        <v>98.357591722619617</v>
+      </c>
+      <c r="O45" s="1">
         <f t="shared" si="6"/>
-        <v>3.4099031931956181E-2</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="7"/>
-        <v>98.357591722619617</v>
-      </c>
-      <c r="O45" s="1">
-        <f t="shared" si="5"/>
         <v>-0.36488951287716004</v>
       </c>
     </row>
@@ -5031,35 +5037,35 @@
         <v>100</v>
       </c>
       <c r="H46">
+        <f t="shared" si="1"/>
+        <v>373.15</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="0"/>
-        <v>373.15</v>
-      </c>
-      <c r="I46">
-        <f>$C$4*EXP($C$5 * ((1/H46) - (1/$C$7)))</f>
         <v>706.98782242827019</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>660.30505885821606</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.81908151359428194</v>
       </c>
-      <c r="L46" s="4">
-        <f t="shared" si="3"/>
+      <c r="L46" s="3">
+        <f t="shared" si="4"/>
         <v>1016.6539029339937</v>
       </c>
       <c r="M46">
+        <f t="shared" si="7"/>
+        <v>3.3009691614433012E-2</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="O46" s="1">
         <f t="shared" si="6"/>
-        <v>3.3009691614433012E-2</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="O46" s="1">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5077,12 +5083,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B64B50-3C1B-4927-94D1-345283191450}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/kicad/design_calcs.xlsx
+++ b/kicad/design_calcs.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank Walsh\Documents\GitHub\phoenix-down\kicad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B50B1D9-768D-4542-9671-DF02998B988D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7BF1B7-A81D-427C-B4E9-3B19D64C1F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11430" yWindow="7305" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12555" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thermistor" sheetId="1" r:id="rId1"/>
-    <sheet name="LED Brightness" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Parameter</t>
   </si>
@@ -123,9 +122,6 @@
   <si>
     <t>ADC reading (Decimal)</t>
   </si>
-  <si>
-    <t>Red LED</t>
-  </si>
 </sst>
 </file>
 
@@ -168,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -176,9 +172,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -405,127 +398,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>12520.991974613418</c:v>
+                  <c:v>12133.170007053395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11433.686223727138</c:v>
+                  <c:v>11221.299475246835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10453.575981239928</c:v>
+                  <c:v>10388.881137620136</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9568.941890213262</c:v>
+                  <c:v>9628.1310960376723</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8769.4632379023169</c:v>
+                  <c:v>8932.1064054765284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8046.0378071262749</c:v>
+                  <c:v>8294.6062435985277</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7390.6265524301107</c:v>
+                  <c:v>7710.0855859978756</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6796.1194663514834</c:v>
+                  <c:v>7173.5796968779232</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6256.2195633541796</c:v>
+                  <c:v>6680.6379873624974</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5765.3423797774158</c:v>
+                  <c:v>6227.2659993852212</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5318.528783060442</c:v>
+                  <c:v>5809.8744479667575</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4911.3692153476231</c:v>
+                  <c:v>5425.2344035555279</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4539.9377759118415</c:v>
+                  <c:v>5070.4378230357088</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4200.7347823645823</c:v>
+                  <c:v>4742.8627463983912</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3890.6366495479328</c:v>
+                  <c:v>4440.1425687732572</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3606.8520932929287</c:v>
+                  <c:v>4160.1388769200967</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3346.8838088272773</c:v>
+                  <c:v>3900.9174073885106</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3108.4948946380009</c:v>
+                  <c:v>3660.7267420612384</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2889.6793954654631</c:v>
+                  <c:v>3437.9794071264914</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2688.6364256810443</c:v>
+                  <c:v>3231.2350848803458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2503.7474089688931</c:v>
+                  <c:v>3039.1856851602356</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2333.5560339886351</c:v>
+                  <c:v>2860.6420555154136</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2176.7505802157325</c:v>
+                  <c:v>2694.5221371621942</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2032.1483148439468</c:v>
+                  <c:v>2539.8403979708896</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1898.6817016721084</c:v>
+                  <c:v>2395.6983947165331</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1775.3861972799159</c:v>
+                  <c:v>2261.2763350461451</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1661.3894393641399</c:v>
+                  <c:v>2135.8255254556939</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1555.9016575663679</c:v>
+                  <c:v>2018.6616053579207</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1458.2071590754961</c:v>
+                  <c:v>1909.1584793378038</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1367.6567602411242</c:v>
+                  <c:v>1806.7428701767092</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1283.6610518180785</c:v>
+                  <c:v>1710.889424384241</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1205.6843996441166</c:v>
+                  <c:v>1621.1163099862445</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1133.2395948434664</c:v>
+                  <c:v>1536.9812533298139</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1065.883078313675</c:v>
+                  <c:v>1458.0779678127624</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1003.2106735185798</c:v>
+                  <c:v>1384.0329328386372</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>944.85376966921251</c:v>
+                  <c:v>1314.5024860363169</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>890.47590439250496</c:v>
+                  <c:v>1249.1701959497761</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>839.7697011063201</c:v>
+                  <c:v>1187.7444860714663</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>792.45412165987295</c:v>
+                  <c:v>1129.95648432504</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>748.27199946526787</c:v>
+                  <c:v>1075.5580749543942</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>706.98782242827019</c:v>
+                  <c:v>1024.3201322938444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,127 +1063,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>2.4269492804120776</c:v>
+                  <c:v>2.132807912105803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4001366511512687</c:v>
+                  <c:v>2.1054663633836923</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3718447545581967</c:v>
+                  <c:v>2.0770781430980252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3420707534326826</c:v>
+                  <c:v>2.0476710862628376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3108205939131965</c:v>
+                  <c:v>2.0172788807314577</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2781094626424392</c:v>
+                  <c:v>1.9859409565008219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2439621338890032</c:v>
+                  <c:v>1.9537023006499077</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.208413191436903</c:v>
+                  <c:v>1.9206131988234851</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1715071123997101</c:v>
+                  <c:v>1.886728905883114</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1332982031249981</c:v>
+                  <c:v>1.8521092500358534</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0938503809492701</c:v>
+                  <c:v>1.816818176354704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0532367996250804</c:v>
+                  <c:v>1.7809232370626893</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0115393206161523</c:v>
+                  <c:v>1.7444950372089432</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9688478369602482</c:v>
+                  <c:v>1.7076066453731291</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9252594608322897</c:v>
+                  <c:v>1.6703329797572657</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8808775900953749</c:v>
+                  <c:v>1.6327501804382811</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8358108728063067</c:v>
+                  <c:v>1.5949349786503586</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7901720916682289</c:v>
+                  <c:v>1.5569640737481036</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.744076992653061</c:v>
+                  <c:v>1.5189135279874983</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6976430833513578</c:v>
+                  <c:v>1.4808581884816019</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.6509884269981403</c:v>
+                  <c:v>1.4428711446819986</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6042304575736475</c:v>
+                  <c:v>1.4050232285522084</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.5574848399426005</c:v>
+                  <c:v>1.3673825632876015</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.5108643967745909</c:v>
+                  <c:v>1.3300141650509789</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4644781211186735</c:v>
+                  <c:v>1.2929796007861702</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4184302901501102</c:v>
+                  <c:v>1.2563367037921904</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3728196919433464</c:v>
+                  <c:v>1.2201393474306559</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.3277389733314162</c:v>
+                  <c:v>1.1844372761352069</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2832741131572618</c:v>
+                  <c:v>1.1492759918213644</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2395040216579341</c:v>
+                  <c:v>1.1146966928784097</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1965002634733468</c:v>
+                  <c:v>1.0807362621727232</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1543268989329647</c:v>
+                  <c:v>1.0474272999086227</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1130404359104127</c:v>
+                  <c:v>1.0147981967750976</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0726898826808708</c:v>
+                  <c:v>0.98287324254649033</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0333168908743486</c:v>
+                  <c:v>0.9516727651892416</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.99495597677036507</c:v>
+                  <c:v>0.92121329553908593</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95763480878779816</c:v>
+                  <c:v>0.89150775273545824</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.92137454903524774</c:v>
+                  <c:v>0.86256564581323225</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.88619023714067113</c:v>
+                  <c:v>0.83439328713712801</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.85209120520871495</c:v>
+                  <c:v>0.80699401370276036</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.81908151359428194</c:v>
+                  <c:v>0.78036841270333468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,127 +1220,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>20.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.334071361546094</c:v>
+                  <c:v>21.617317372596162</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.741744165339696</c:v>
+                  <c:v>23.296547847494864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.223159577227264</c:v>
+                  <c:v>25.036044917681309</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.778021745094946</c:v>
+                  <c:v>26.833815866832538</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.405575052441733</c:v>
+                  <c:v>28.687528317229393</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.104586847224752</c:v>
+                  <c:v>30.594521176586611</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.873336401671352</c:v>
+                  <c:v>32.551819929901157</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.70961074207861</c:v>
+                  <c:v>34.556156121226053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.610707837909217</c:v>
+                  <c:v>36.60399077039483</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.573447460648268</c:v>
+                  <c:v>38.691541374868692</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.594189820802413</c:v>
+                  <c:v>40.814812060640506</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40.668861873788643</c:v>
+                  <c:v>42.969626371807294</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.79299096136387</c:v>
+                  <c:v>45.151662128799728</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.961745234694519</c:v>
+                  <c:v>47.356487742504839</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.169980098423537</c:v>
+                  <c:v>49.579599347014423</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.412289732045295</c:v>
+                  <c:v>51.816458108068346</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51.68306259433875</c:v>
+                  <c:v>54.062527077159018</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>53.976539705651049</c:v>
+                  <c:v>56.313306991671524</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56.286874436403323</c:v>
+                  <c:v>58.564370467573255</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58.60819251073994</c:v>
+                  <c:v>60.811394090671314</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>60.934650961587977</c:v>
+                  <c:v>63.050187982539285</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>63.260494844810466</c:v>
+                  <c:v>65.276722494803209</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>65.580110630642309</c:v>
+                  <c:v>67.487151767425473</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>67.888075333372697</c:v>
+                  <c:v>69.677833969840961</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>70.179200607172973</c:v>
+                  <c:v>71.845348125419477</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>72.448571218266636</c:v>
+                  <c:v>73.986507497208137</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>74.691577492403297</c:v>
+                  <c:v>76.098369584124285</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>76.903941523415966</c:v>
+                  <c:v>78.178242840081538</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>79.081737105994506</c:v>
+                  <c:v>80.223690282764622</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>81.221403517477967</c:v>
+                  <c:v>82.232530203260339</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>83.319753414688705</c:v>
+                  <c:v>84.202834222261089</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>85.373975229422342</c:v>
+                  <c:v>86.132922963262288</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>87.381630538510422</c:v>
+                  <c:v>88.021359628574842</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>89.340646951132314</c:v>
+                  <c:v>89.86694177083163</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>91.249307098224165</c:v>
+                  <c:v>91.668691551941293</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>93.106234328324973</c:v>
+                  <c:v>93.425844774203853</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>94.910375713623822</c:v>
+                  <c:v>95.137838955681872</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>96.66098295238757</c:v>
+                  <c:v>96.80430070504967</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>98.357591722619617</c:v>
+                  <c:v>98.42503263111206</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>100</c:v>
+                  <c:v>100.00000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,127 +1352,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>2.4269492804120776</c:v>
+                  <c:v>2.132807912105803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4001366511512687</c:v>
+                  <c:v>2.1054663633836923</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3718447545581967</c:v>
+                  <c:v>2.0770781430980252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3420707534326826</c:v>
+                  <c:v>2.0476710862628376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3108205939131965</c:v>
+                  <c:v>2.0172788807314577</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2781094626424392</c:v>
+                  <c:v>1.9859409565008219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2439621338890032</c:v>
+                  <c:v>1.9537023006499077</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.208413191436903</c:v>
+                  <c:v>1.9206131988234851</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1715071123997101</c:v>
+                  <c:v>1.886728905883114</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1332982031249981</c:v>
+                  <c:v>1.8521092500358534</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0938503809492701</c:v>
+                  <c:v>1.816818176354704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0532367996250804</c:v>
+                  <c:v>1.7809232370626893</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0115393206161523</c:v>
+                  <c:v>1.7444950372089432</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9688478369602482</c:v>
+                  <c:v>1.7076066453731291</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9252594608322897</c:v>
+                  <c:v>1.6703329797572657</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8808775900953749</c:v>
+                  <c:v>1.6327501804382811</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8358108728063067</c:v>
+                  <c:v>1.5949349786503586</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7901720916682289</c:v>
+                  <c:v>1.5569640737481036</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.744076992653061</c:v>
+                  <c:v>1.5189135279874983</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6976430833513578</c:v>
+                  <c:v>1.4808581884816019</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.6509884269981403</c:v>
+                  <c:v>1.4428711446819986</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6042304575736475</c:v>
+                  <c:v>1.4050232285522084</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.5574848399426005</c:v>
+                  <c:v>1.3673825632876015</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.5108643967745909</c:v>
+                  <c:v>1.3300141650509789</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4644781211186735</c:v>
+                  <c:v>1.2929796007861702</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4184302901501102</c:v>
+                  <c:v>1.2563367037921904</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3728196919433464</c:v>
+                  <c:v>1.2201393474306559</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.3277389733314162</c:v>
+                  <c:v>1.1844372761352069</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2832741131572618</c:v>
+                  <c:v>1.1492759918213644</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2395040216579341</c:v>
+                  <c:v>1.1146966928784097</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1965002634733468</c:v>
+                  <c:v>1.0807362621727232</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1543268989329647</c:v>
+                  <c:v>1.0474272999086227</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1130404359104127</c:v>
+                  <c:v>1.0147981967750976</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0726898826808708</c:v>
+                  <c:v>0.98287324254649033</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0333168908743486</c:v>
+                  <c:v>0.9516727651892416</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.99495597677036507</c:v>
+                  <c:v>0.92121329553908593</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95763480878779816</c:v>
+                  <c:v>0.89150775273545824</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.92137454903524774</c:v>
+                  <c:v>0.86256564581323225</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.88619023714067113</c:v>
+                  <c:v>0.83439328713712801</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.85209120520871495</c:v>
+                  <c:v>0.80699401370276036</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.81908151359428194</c:v>
+                  <c:v>0.78036841270333468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3388,8 +3381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3441,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>3930</v>
+        <v>3380</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
@@ -3490,27 +3483,27 @@
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I46" si="0">$C$4*EXP($C$5 * ((1/H6) - (1/$C$7)))</f>
-        <v>12520.991974613418</v>
+        <v>12133.170007053395</v>
       </c>
       <c r="J6">
         <f>(I6*$C$11)/(I6+$C$11)</f>
-        <v>5559.6982534017998</v>
+        <v>5481.8943708410488</v>
       </c>
       <c r="K6">
         <f>$C$12*J6/(J6+$C$10)</f>
-        <v>2.4269492804120776</v>
+        <v>2.132807912105803</v>
       </c>
       <c r="L6" s="3">
         <f>((2^12)/3.3)*K6</f>
-        <v>3012.3588644145061</v>
+        <v>2647.2670327228393</v>
       </c>
       <c r="N6">
         <f>$C$14*K6+$C$15</f>
-        <v>20</v>
+        <v>20.000000000000014</v>
       </c>
       <c r="O6">
         <f>(G6-N6)/G6*100</f>
-        <v>0</v>
+        <v>-7.1054273576010019E-14</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -3533,31 +3526,31 @@
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>11433.686223727138</v>
+        <v>11221.299475246835</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7:J46" si="2">(I7*$C$11)/(I7+$C$11)</f>
-        <v>5334.4469562449885</v>
+        <v>5287.7532256380891</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7:K46" si="3">$C$12*J7/(J7+$C$10)</f>
-        <v>2.4001366511512687</v>
+        <v>2.1054663633836923</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" ref="L7:L46" si="4">((2^12)/3.3)*K7</f>
-        <v>2979.0787039744232</v>
+        <v>2613.3303710362438</v>
       </c>
       <c r="M7">
         <f>K6-K7</f>
-        <v>2.6812629260808851E-2</v>
+        <v>2.7341548722110698E-2</v>
       </c>
       <c r="N7">
         <f t="shared" ref="N7:N41" si="5">$C$14*K7+$C$15</f>
-        <v>21.334071361546094</v>
+        <v>21.617317372596162</v>
       </c>
       <c r="O7">
         <f t="shared" ref="O7:O46" si="6">(G7-N7)/G7*100</f>
-        <v>3.026948356608663</v>
+        <v>1.7394664881992645</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -3575,31 +3568,31 @@
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>10453.575981239928</v>
+        <v>10388.881137620136</v>
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
-        <v>5110.8793840392391</v>
+        <v>5095.3659828107493</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
-        <v>2.3718447545581967</v>
+        <v>2.0770781430980252</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="4"/>
-        <v>2943.9624589910222</v>
+        <v>2578.0945679180336</v>
       </c>
       <c r="M8">
         <f t="shared" ref="M8:M46" si="7">K7-K8</f>
-        <v>2.8291896593072074E-2</v>
+        <v>2.8388220285667121E-2</v>
       </c>
       <c r="N8">
         <f t="shared" si="5"/>
-        <v>22.741744165339696</v>
+        <v>23.296547847494864</v>
       </c>
       <c r="O8">
         <f t="shared" si="6"/>
-        <v>5.2427326444179325</v>
+        <v>2.9310506354380665</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -3621,31 +3614,31 @@
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>9568.941890213262</v>
+        <v>9628.1310960376723</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
-        <v>4889.8616715699081</v>
+        <v>4905.2714437908462</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
-        <v>2.3420707534326826</v>
+        <v>2.0476710862628376</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="4"/>
-        <v>2907.0066078970508</v>
+        <v>2541.594172525025</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>2.9774001125514094E-2</v>
+        <v>2.9407056835187628E-2</v>
       </c>
       <c r="N9">
         <f t="shared" si="5"/>
-        <v>24.223159577227264</v>
+        <v>25.036044917681309</v>
       </c>
       <c r="O9">
         <f t="shared" si="6"/>
-        <v>6.834001626048984</v>
+        <v>3.7075195473795799</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -3653,7 +3646,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -3667,31 +3660,31 @@
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>8769.4632379023169</v>
+        <v>8932.1064054765284</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>4672.1971357143593</v>
+        <v>4717.9675701023525</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
-        <v>2.3108205939131965</v>
+        <v>2.0172788807314577</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="4"/>
-        <v>2868.2185311116523</v>
+        <v>2503.8709986291065</v>
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
-        <v>3.1250159519486065E-2</v>
+        <v>3.039220553137989E-2</v>
       </c>
       <c r="N10">
         <f t="shared" si="5"/>
-        <v>25.778021745094946</v>
+        <v>26.833815866832538</v>
       </c>
       <c r="O10">
         <f t="shared" si="6"/>
-        <v>7.9356366246609049</v>
+        <v>4.1649433327409371</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -3713,31 +3706,31 @@
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>8046.0378071262749</v>
+        <v>8294.6062435985277</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>4458.6173946443478</v>
+        <v>4533.9080454387458</v>
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
-        <v>2.2781094626424392</v>
+        <v>1.9859409565008219</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="4"/>
-        <v>2827.6170784798278</v>
+        <v>2464.9739872204141</v>
       </c>
       <c r="M11">
         <f t="shared" si="7"/>
-        <v>3.271113127075731E-2</v>
+        <v>3.133792423063575E-2</v>
       </c>
       <c r="N11">
         <f t="shared" si="5"/>
-        <v>27.405575052441733</v>
+        <v>28.687528317229393</v>
       </c>
       <c r="O11">
         <f t="shared" si="6"/>
-        <v>8.6480831585275553</v>
+        <v>4.3749056092353555</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -3759,31 +3752,31 @@
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>7390.6265524301107</v>
+        <v>7710.0855859978756</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>4249.7758951631149</v>
+        <v>4353.4999018263916</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
-        <v>2.2439621338890032</v>
+        <v>1.9537023006499077</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="4"/>
-        <v>2785.2330001240475</v>
+        <v>2424.9589768066735</v>
       </c>
       <c r="M12">
         <f t="shared" si="7"/>
-        <v>3.4147328753435957E-2</v>
+        <v>3.2238655850914233E-2</v>
       </c>
       <c r="N12">
         <f t="shared" si="5"/>
-        <v>29.104586847224752</v>
+        <v>30.594521176586611</v>
       </c>
       <c r="O12">
         <f t="shared" si="6"/>
-        <v>9.0481661024226501</v>
+        <v>4.3921213231668421</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -3801,31 +3794,31 @@
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>6796.1194663514834</v>
+        <v>7173.5796968779232</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>4046.2438243348374</v>
+        <v>4177.1021671050012</v>
       </c>
       <c r="K13">
         <f t="shared" si="3"/>
-        <v>2.208413191436903</v>
+        <v>1.9206131988234851</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="4"/>
-        <v>2741.1092218562289</v>
+        <v>2383.8883825396956</v>
       </c>
       <c r="M13">
         <f t="shared" si="7"/>
-        <v>3.5548942452100274E-2</v>
+        <v>3.3089101826422551E-2</v>
       </c>
       <c r="N13">
         <f t="shared" si="5"/>
-        <v>30.873336401671352</v>
+        <v>32.551819929901157</v>
       </c>
       <c r="O13">
         <f t="shared" si="6"/>
-        <v>9.1960694068489648</v>
+        <v>4.2593531473495378</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
@@ -3834,7 +3827,7 @@
       </c>
       <c r="C14">
         <f>(G6-G46)/(K6-K46)</f>
-        <v>-49.755335389508829</v>
+        <v>-59.15236876425557</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -3848,31 +3841,31 @@
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>6256.2195633541796</v>
+        <v>6680.6379873624974</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>3848.5082826128614</v>
+        <v>4005.0254627094296</v>
       </c>
       <c r="K14">
         <f t="shared" si="3"/>
-        <v>2.1715071123997101</v>
+        <v>1.886728905883114</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="4"/>
-        <v>2695.3009492088522</v>
+        <v>2341.8307874234047</v>
       </c>
       <c r="M14">
         <f t="shared" si="7"/>
-        <v>3.6906079037192896E-2</v>
+        <v>3.3884292940371097E-2</v>
       </c>
       <c r="N14">
         <f t="shared" si="5"/>
-        <v>32.70961074207861</v>
+        <v>34.556156121226053</v>
       </c>
       <c r="O14">
         <f t="shared" si="6"/>
-        <v>9.1399701608927497</v>
+        <v>4.0106774410387427</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -3881,7 +3874,7 @@
       </c>
       <c r="C15">
         <f>G6-C14*K6</f>
-        <v>140.75367542023002</v>
+        <v>146.16064012020445</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
@@ -3895,31 +3888,31 @@
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>5765.3423797774158</v>
+        <v>6227.2659993852212</v>
       </c>
       <c r="J15">
         <f t="shared" si="2"/>
-        <v>3656.972516608811</v>
+        <v>3837.5324590236855</v>
       </c>
       <c r="K15">
         <f t="shared" si="3"/>
-        <v>2.1332982031249981</v>
+        <v>1.8521092500358534</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="4"/>
-        <v>2647.8755878787856</v>
+        <v>2298.8604509535926</v>
       </c>
       <c r="M15">
         <f t="shared" si="7"/>
-        <v>3.8208909274711989E-2</v>
+        <v>3.4619655847260677E-2</v>
       </c>
       <c r="N15">
         <f t="shared" si="5"/>
-        <v>34.610707837909217</v>
+        <v>36.60399077039483</v>
       </c>
       <c r="O15">
         <f t="shared" si="6"/>
-        <v>8.9191899002389032</v>
+        <v>3.673708498960973</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -3932,31 +3925,31 @@
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>5318.528783060442</v>
+        <v>5809.8744479667575</v>
       </c>
       <c r="J16">
         <f t="shared" si="2"/>
-        <v>3471.9579526082066</v>
+        <v>3674.8390805304221</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
-        <v>2.0938503809492701</v>
+        <v>1.816818176354704</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="4"/>
-        <v>2598.9124728388515</v>
+        <v>2255.05674252996</v>
       </c>
       <c r="M16">
         <f t="shared" si="7"/>
-        <v>3.9447822175727953E-2</v>
+        <v>3.5291073681149365E-2</v>
       </c>
       <c r="N16">
         <f t="shared" si="5"/>
-        <v>36.573447460648268</v>
+        <v>38.691541374868692</v>
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
-        <v>8.5663813483793305</v>
+        <v>3.2711465628282714</v>
       </c>
     </row>
     <row r="17" spans="7:15" x14ac:dyDescent="0.25">
@@ -3969,31 +3962,31 @@
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>4911.3692153476231</v>
+        <v>5425.2344035555279</v>
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>3293.7077369746603</v>
+        <v>3517.1163443098194</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
-        <v>2.0532367996250804</v>
+        <v>1.7809232370626893</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="4"/>
-        <v>2548.5024034134331</v>
+        <v>2210.503508790538</v>
       </c>
       <c r="M17">
         <f t="shared" si="7"/>
-        <v>4.0613581324189685E-2</v>
+        <v>3.5894939292014705E-2</v>
       </c>
       <c r="N17">
         <f t="shared" si="5"/>
-        <v>38.594189820802413</v>
+        <v>40.814812060640506</v>
       </c>
       <c r="O17">
         <f t="shared" si="6"/>
-        <v>8.1090718552323491</v>
+        <v>2.8218760460940335</v>
       </c>
     </row>
     <row r="18" spans="7:15" x14ac:dyDescent="0.25">
@@ -4006,31 +3999,31 @@
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>4539.9377759118415</v>
+        <v>5070.4378230357088</v>
       </c>
       <c r="J18">
         <f t="shared" si="2"/>
-        <v>3122.3914750399467</v>
+        <v>3364.4927125377612</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
-        <v>2.0115393206161523</v>
+        <v>1.7444950372089432</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="4"/>
-        <v>2496.7469870435634</v>
+        <v>2165.2883855781306</v>
       </c>
       <c r="M18">
         <f t="shared" si="7"/>
-        <v>4.1697479008928173E-2</v>
+        <v>3.6428199853746124E-2</v>
       </c>
       <c r="N18">
         <f t="shared" si="5"/>
-        <v>40.668861873788643</v>
+        <v>42.969626371807294</v>
       </c>
       <c r="O18">
         <f t="shared" si="6"/>
-        <v>7.5707684686621759</v>
+        <v>2.3417582458925135</v>
       </c>
     </row>
     <row r="19" spans="7:15" x14ac:dyDescent="0.25">
@@ -4043,31 +4036,31 @@
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>4200.7347823645823</v>
+        <v>4742.8627463983912</v>
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
-        <v>2958.1108630951508</v>
+        <v>3217.0568416619426</v>
       </c>
       <c r="K19">
         <f t="shared" si="3"/>
-        <v>1.9688478369602482</v>
+        <v>1.7076066453731291</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="4"/>
-        <v>2443.7578000573262</v>
+        <v>2119.5020664994959</v>
       </c>
       <c r="M19">
         <f t="shared" si="7"/>
-        <v>4.2691483655904028E-2</v>
+        <v>3.6888391835814049E-2</v>
       </c>
       <c r="N19">
         <f t="shared" si="5"/>
-        <v>42.79299096136387</v>
+        <v>45.151662128799728</v>
       </c>
       <c r="O19">
         <f t="shared" si="6"/>
-        <v>6.9717587796437606</v>
+        <v>1.8442127634788519</v>
       </c>
     </row>
     <row r="20" spans="7:15" x14ac:dyDescent="0.25">
@@ -4080,31 +4073,31 @@
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>3890.6366495479328</v>
+        <v>4440.1425687732572</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>2800.9059251251474</v>
+        <v>3074.8606169408918</v>
       </c>
       <c r="K20">
         <f t="shared" si="3"/>
-        <v>1.9252594608322897</v>
+        <v>1.6703329797572657</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="4"/>
-        <v>2389.6553792633513</v>
+        <v>2073.2375409350789</v>
       </c>
       <c r="M20">
         <f t="shared" si="7"/>
-        <v>4.3588376127958517E-2</v>
+        <v>3.7273665615863427E-2</v>
       </c>
       <c r="N20">
         <f t="shared" si="5"/>
-        <v>44.961745234694519</v>
+        <v>47.356487742504839</v>
       </c>
       <c r="O20">
         <f t="shared" si="6"/>
-        <v>6.3296974277197533</v>
+        <v>1.3406505364482513</v>
       </c>
     </row>
     <row r="21" spans="7:15" x14ac:dyDescent="0.25">
@@ -4117,31 +4110,31 @@
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>3606.8520932929287</v>
+        <v>4160.1388769200967</v>
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
-        <v>2650.761593176142</v>
+        <v>2937.9223700275943</v>
       </c>
       <c r="K21">
         <f t="shared" si="3"/>
-        <v>1.8808775900953749</v>
+        <v>1.6327501804382811</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="4"/>
-        <v>2334.5680633426232</v>
+        <v>2026.5893148712726</v>
       </c>
       <c r="M21">
         <f t="shared" si="7"/>
-        <v>4.4381870736914797E-2</v>
+        <v>3.7582799318984561E-2</v>
       </c>
       <c r="N21">
         <f t="shared" si="5"/>
-        <v>47.169980098423537</v>
+        <v>49.579599347014423</v>
       </c>
       <c r="O21">
         <f t="shared" si="6"/>
-        <v>5.6600398031529267</v>
+        <v>0.8408013059711551</v>
       </c>
     </row>
     <row r="22" spans="7:15" x14ac:dyDescent="0.25">
@@ -4154,31 +4147,31 @@
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>3346.8838088272773</v>
+        <v>3900.9174073885106</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>2507.6144040556769</v>
+        <v>2806.2301883148548</v>
       </c>
       <c r="K22">
         <f t="shared" si="3"/>
-        <v>1.8358108728063067</v>
+        <v>1.5949349786503586</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="4"/>
-        <v>2278.6307075801915</v>
+        <v>1979.6526280460209</v>
       </c>
       <c r="M22">
         <f t="shared" si="7"/>
-        <v>4.5066717289068192E-2</v>
+        <v>3.7815201787922526E-2</v>
       </c>
       <c r="N22">
         <f t="shared" si="5"/>
-        <v>49.412289732045295</v>
+        <v>51.816458108068346</v>
       </c>
       <c r="O22">
         <f t="shared" si="6"/>
-        <v>4.9763658999128939</v>
+        <v>0.35296517679164197</v>
       </c>
     </row>
     <row r="23" spans="7:15" x14ac:dyDescent="0.25">
@@ -4191,31 +4184,31 @@
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>3108.4948946380009</v>
+        <v>3660.7267420612384</v>
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>2371.3591221746774</v>
+        <v>2679.7452369718358</v>
       </c>
       <c r="K23">
         <f t="shared" si="3"/>
-        <v>1.7901720916682289</v>
+        <v>1.5569640737481036</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="4"/>
-        <v>2221.9832992342622</v>
+        <v>1932.5226806279493</v>
       </c>
       <c r="M23">
         <f t="shared" si="7"/>
-        <v>4.5638781138077844E-2</v>
+        <v>3.7970904902254965E-2</v>
       </c>
       <c r="N23">
         <f t="shared" si="5"/>
-        <v>51.68306259433875</v>
+        <v>54.062527077159018</v>
       </c>
       <c r="O23">
         <f t="shared" si="6"/>
-        <v>4.2906248252986101</v>
+        <v>-0.11579088362781123</v>
       </c>
     </row>
     <row r="24" spans="7:15" x14ac:dyDescent="0.25">
@@ -4228,31 +4221,31 @@
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>2889.6793954654631</v>
+        <v>3437.9794071264914</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>2241.8551360416618</v>
+        <v>2558.405027249295</v>
       </c>
       <c r="K24">
         <f t="shared" si="3"/>
-        <v>1.744076992653061</v>
+        <v>1.5189135279874983</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="4"/>
-        <v>2164.7695036081632</v>
+        <v>1885.2938820111494</v>
       </c>
       <c r="M24">
         <f t="shared" si="7"/>
-        <v>4.609509901516784E-2</v>
+        <v>3.8050545760605292E-2</v>
       </c>
       <c r="N24">
         <f t="shared" si="5"/>
-        <v>53.976539705651049</v>
+        <v>56.313306991671524</v>
       </c>
       <c r="O24">
         <f t="shared" si="6"/>
-        <v>3.6133219541945545</v>
+        <v>-0.55947677084200775</v>
       </c>
     </row>
     <row r="25" spans="7:15" x14ac:dyDescent="0.25">
@@ -4265,31 +4258,31 @@
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>2688.6364256810443</v>
+        <v>3231.2350848803458</v>
       </c>
       <c r="J25">
         <f t="shared" si="2"/>
-        <v>2118.9325121172233</v>
+        <v>2442.1265771120316</v>
       </c>
       <c r="K25">
         <f t="shared" si="3"/>
-        <v>1.6976430833513578</v>
+        <v>1.4808581884816019</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="4"/>
-        <v>2107.1351725476247</v>
+        <v>1838.0591333395882</v>
       </c>
       <c r="M25">
         <f t="shared" si="7"/>
-        <v>4.6433909301703213E-2</v>
+        <v>3.8055339505896457E-2</v>
       </c>
       <c r="N25">
         <f t="shared" si="5"/>
-        <v>56.286874436403323</v>
+        <v>58.564370467573255</v>
       </c>
       <c r="O25">
         <f t="shared" si="6"/>
-        <v>2.9536647648218564</v>
+        <v>-0.97305253029871563</v>
       </c>
     </row>
     <row r="26" spans="7:15" x14ac:dyDescent="0.25">
@@ -4302,31 +4295,31 @@
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>2503.7474089688931</v>
+        <v>3039.1856851602356</v>
       </c>
       <c r="J26">
         <f t="shared" si="2"/>
-        <v>2002.3976229501918</v>
+        <v>2330.8094221091596</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>1.6509884269981403</v>
+        <v>1.4428711446819986</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="4"/>
-        <v>2049.2268475710252</v>
+        <v>1790.909154126505</v>
       </c>
       <c r="M26">
         <f t="shared" si="7"/>
-        <v>4.6654656353217527E-2</v>
+        <v>3.7987043799603271E-2</v>
       </c>
       <c r="N26">
         <f t="shared" si="5"/>
-        <v>58.60819251073994</v>
+        <v>60.811394090671314</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" si="6"/>
-        <v>2.3196791487667667</v>
+        <v>-1.3523234844521899</v>
       </c>
     </row>
     <row r="27" spans="7:15" x14ac:dyDescent="0.25">
@@ -4339,31 +4332,31 @@
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>2333.5560339886351</v>
+        <v>2860.6420555154136</v>
       </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>1892.0382958149744</v>
+        <v>2224.3384452867181</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>1.6042304575736475</v>
+        <v>1.4050232285522084</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="4"/>
-        <v>1991.1902891580789</v>
+        <v>1743.9318618635896</v>
       </c>
       <c r="M27">
         <f t="shared" si="7"/>
-        <v>4.675796942449284E-2</v>
+        <v>3.7847916129790216E-2</v>
       </c>
       <c r="N27">
         <f t="shared" si="5"/>
-        <v>60.934650961587977</v>
+        <v>63.050187982539285</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" si="6"/>
-        <v>1.7183049006645537</v>
+        <v>-1.6938515847407818</v>
       </c>
     </row>
     <row r="28" spans="7:15" x14ac:dyDescent="0.25">
@@ -4376,31 +4369,31 @@
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>2176.7505802157325</v>
+        <v>2694.5221371621942</v>
       </c>
       <c r="J28">
         <f t="shared" si="2"/>
-        <v>1787.6284529900977</v>
+        <v>2122.5865046736944</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>1.5574848399426005</v>
+        <v>1.3673825632876015</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="4"/>
-        <v>1933.1690619408762</v>
+        <v>1697.2118118866715</v>
       </c>
       <c r="M28">
         <f t="shared" si="7"/>
-        <v>4.674561763104701E-2</v>
+        <v>3.7640665264606854E-2</v>
       </c>
       <c r="N28">
         <f t="shared" si="5"/>
-        <v>63.260494844810466</v>
+        <v>65.276722494803209</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" si="6"/>
-        <v>1.1554768049836461</v>
+        <v>-1.9948788981300147</v>
       </c>
     </row>
     <row r="29" spans="7:15" x14ac:dyDescent="0.25">
@@ -4413,31 +4406,31 @@
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>2032.1483148439468</v>
+        <v>2539.8403979708896</v>
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>1688.9322352658373</v>
+        <v>2025.4168453227435</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>1.5108643967745909</v>
+        <v>1.3300141650509789</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="4"/>
-        <v>1875.303202784462</v>
+        <v>1650.8297030450938</v>
       </c>
       <c r="M29">
         <f t="shared" si="7"/>
-        <v>4.6620443168009507E-2</v>
+        <v>3.7368398236622635E-2</v>
       </c>
       <c r="N29">
         <f t="shared" si="5"/>
-        <v>65.580110630642309</v>
+        <v>67.487151767425473</v>
       </c>
       <c r="O29" s="1">
         <f t="shared" si="6"/>
-        <v>0.63619601417831906</v>
+        <v>-2.2532602536749593</v>
       </c>
     </row>
     <row r="30" spans="7:15" x14ac:dyDescent="0.25">
@@ -4450,31 +4443,31 @@
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>1898.6817016721084</v>
+        <v>2395.6983947165331</v>
       </c>
       <c r="J30">
         <f t="shared" si="2"/>
-        <v>1595.7076164204718</v>
+        <v>1932.6852900338888</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>1.4644781211186735</v>
+        <v>1.2929796007861702</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="4"/>
-        <v>1817.7279951824505</v>
+        <v>1604.8619529758041</v>
       </c>
       <c r="M30">
         <f t="shared" si="7"/>
-        <v>4.6386275655917464E-2</v>
+        <v>3.7034564264808667E-2</v>
       </c>
       <c r="N30">
         <f t="shared" si="5"/>
-        <v>67.888075333372697</v>
+        <v>69.677833969840961</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" si="6"/>
-        <v>0.16459509798132768</v>
+        <v>-2.4674028968249426</v>
       </c>
     </row>
     <row r="31" spans="7:15" x14ac:dyDescent="0.25">
@@ -4487,31 +4480,31 @@
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>1775.3861972799159</v>
+        <v>2261.2763350461451</v>
       </c>
       <c r="J31">
         <f t="shared" si="2"/>
-        <v>1507.7095286182848</v>
+        <v>1844.242208768093</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>1.4184302901501102</v>
+        <v>1.2563367037921904</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" si="4"/>
-        <v>1760.572869228743</v>
+        <v>1559.3803450705491</v>
       </c>
       <c r="M31">
         <f t="shared" si="7"/>
-        <v>4.6047830968563241E-2</v>
+        <v>3.6642896993979823E-2</v>
       </c>
       <c r="N31">
         <f t="shared" si="5"/>
-        <v>70.179200607172973</v>
+        <v>71.845348125419477</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="6"/>
-        <v>-0.25600086738996147</v>
+        <v>-2.6362116077421098</v>
       </c>
     </row>
     <row r="32" spans="7:15" x14ac:dyDescent="0.25">
@@ -4524,31 +4517,31 @@
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>1661.3894393641399</v>
+        <v>2135.8255254556939</v>
       </c>
       <c r="J32">
         <f t="shared" si="2"/>
-        <v>1424.6925274238422</v>
+        <v>1759.9342714475081</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>1.3728196919433464</v>
+        <v>1.2201393474306559</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="4"/>
-        <v>1703.9604418787719</v>
+        <v>1514.4517475987777</v>
       </c>
       <c r="M32">
         <f t="shared" si="7"/>
-        <v>4.561059820676383E-2</v>
+        <v>3.6197356361534538E-2</v>
       </c>
       <c r="N32">
         <f t="shared" si="5"/>
-        <v>72.448571218266636</v>
+        <v>73.986507497208137</v>
       </c>
       <c r="O32" s="1">
         <f t="shared" si="6"/>
-        <v>-0.62301558092588361</v>
+        <v>-2.7590381905668577</v>
       </c>
     </row>
     <row r="33" spans="7:15" x14ac:dyDescent="0.25">
@@ -4561,31 +4554,31 @@
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>1555.9016575663679</v>
+        <v>2018.6616053579207</v>
       </c>
       <c r="J33">
         <f t="shared" si="2"/>
-        <v>1346.4130309101604</v>
+        <v>1679.6059924492768</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>1.3277389733314162</v>
+        <v>1.1844372761352069</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="4"/>
-        <v>1648.0057075046911</v>
+        <v>1470.1379039544872</v>
       </c>
       <c r="M33">
         <f t="shared" si="7"/>
-        <v>4.5080718611930193E-2</v>
+        <v>3.5702071295449E-2</v>
       </c>
       <c r="N33">
         <f t="shared" si="5"/>
-        <v>74.691577492403297</v>
+        <v>76.098369584124285</v>
       </c>
       <c r="O33" s="1">
         <f t="shared" si="6"/>
-        <v>-0.93456417892337473</v>
+        <v>-2.8356345731409256</v>
       </c>
     </row>
     <row r="34" spans="7:15" x14ac:dyDescent="0.25">
@@ -4598,31 +4591,31 @@
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>1458.2071590754961</v>
+        <v>1909.1584793378038</v>
       </c>
       <c r="J34">
         <f t="shared" si="2"/>
-        <v>1272.6311706805893</v>
+        <v>1603.1010777547065</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="3"/>
-        <v>1.2832741131572618</v>
+        <v>1.1492759918213644</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" si="4"/>
-        <v>1592.8153840885286</v>
+        <v>1426.4952916667603</v>
       </c>
       <c r="M34">
         <f t="shared" si="7"/>
-        <v>4.4464860174154408E-2</v>
+        <v>3.5161284313842467E-2</v>
       </c>
       <c r="N34">
         <f t="shared" si="5"/>
-        <v>76.903941523415966</v>
+        <v>78.178242840081538</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" si="6"/>
-        <v>-1.1893967413367976</v>
+        <v>-2.8661090001072864</v>
       </c>
     </row>
     <row r="35" spans="7:15" x14ac:dyDescent="0.25">
@@ -4635,31 +4628,31 @@
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>1367.6567602411242</v>
+        <v>1806.7428701767092</v>
       </c>
       <c r="J35">
         <f t="shared" si="2"/>
-        <v>1203.1122940169723</v>
+        <v>1530.2635875474671</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>1.2395040216579341</v>
+        <v>1.1146966928784097</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="4"/>
-        <v>1538.4874159729993</v>
+        <v>1383.5750466757472</v>
       </c>
       <c r="M35">
         <f t="shared" si="7"/>
-        <v>4.3770091499327757E-2</v>
+        <v>3.457929894295475E-2</v>
       </c>
       <c r="N35">
         <f t="shared" si="5"/>
-        <v>79.081737105994506</v>
+        <v>80.223690282764622</v>
       </c>
       <c r="O35" s="1">
         <f t="shared" si="6"/>
-        <v>-1.3868424435827</v>
+        <v>-2.8508849779033616</v>
       </c>
     </row>
     <row r="36" spans="7:15" x14ac:dyDescent="0.25">
@@ -4672,31 +4665,31 @@
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>1283.6610518180785</v>
+        <v>1710.889424384241</v>
       </c>
       <c r="J36">
         <f t="shared" si="2"/>
-        <v>1137.6281562545239</v>
+        <v>1460.9389281926381</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>1.1965002634733468</v>
+        <v>1.0807362621727232</v>
       </c>
       <c r="L36" s="3">
         <f t="shared" si="4"/>
-        <v>1485.1106300566148</v>
+        <v>1341.4229484422649</v>
       </c>
       <c r="M36">
         <f t="shared" si="7"/>
-        <v>4.3003758184587237E-2</v>
+        <v>3.396043070568644E-2</v>
       </c>
       <c r="N36">
         <f t="shared" si="5"/>
-        <v>81.221403517477967</v>
+        <v>82.232530203260339</v>
       </c>
       <c r="O36" s="1">
         <f t="shared" si="6"/>
-        <v>-1.5267543968474584</v>
+        <v>-2.7906627540754236</v>
       </c>
     </row>
     <row r="37" spans="7:15" x14ac:dyDescent="0.25">
@@ -4709,31 +4702,31 @@
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>1205.6843996441166</v>
+        <v>1621.1163099862445</v>
       </c>
       <c r="J37">
         <f t="shared" si="2"/>
-        <v>1075.9578412563612</v>
+        <v>1394.9746880970365</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>1.1543268989329647</v>
+        <v>1.0474272999086227</v>
       </c>
       <c r="L37" s="3">
         <f t="shared" si="4"/>
-        <v>1432.764538796795</v>
+        <v>1300.0794607350663</v>
       </c>
       <c r="M37">
         <f t="shared" si="7"/>
-        <v>4.2173364540382119E-2</v>
+        <v>3.3308962264100517E-2</v>
       </c>
       <c r="N37">
         <f t="shared" si="5"/>
-        <v>83.319753414688705</v>
+        <v>84.202834222261089</v>
       </c>
       <c r="O37" s="1">
         <f t="shared" si="6"/>
-        <v>-1.6094553837667134</v>
+        <v>-2.6863831978793766</v>
       </c>
     </row>
     <row r="38" spans="7:15" x14ac:dyDescent="0.25">
@@ -4746,31 +4739,31 @@
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>1133.2395948434664</v>
+        <v>1536.9812533298139</v>
       </c>
       <c r="J38">
         <f t="shared" si="2"/>
-        <v>1017.8884458467453</v>
+        <v>1332.221332063107</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>1.1130404359104127</v>
+        <v>1.0147981967750976</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="4"/>
-        <v>1381.5192804512274</v>
+        <v>1259.5798224214545</v>
       </c>
       <c r="M38">
         <f t="shared" si="7"/>
-        <v>4.1286463022552011E-2</v>
+        <v>3.2629103133525073E-2</v>
       </c>
       <c r="N38">
         <f t="shared" si="5"/>
-        <v>85.373975229422342</v>
+        <v>86.132922963262288</v>
       </c>
       <c r="O38" s="1">
         <f t="shared" si="6"/>
-        <v>-1.6356847969313599</v>
+        <v>-2.5391940038836767</v>
       </c>
     </row>
     <row r="39" spans="7:15" x14ac:dyDescent="0.25">
@@ -4783,31 +4776,31 @@
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>1065.883078313675</v>
+        <v>1458.0779678127624</v>
       </c>
       <c r="J39">
         <f t="shared" si="2"/>
-        <v>963.21556153302902</v>
+        <v>1272.5327685050615</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="3"/>
-        <v>1.0726898826808708</v>
+        <v>0.98287324254649033</v>
       </c>
       <c r="L39" s="3">
         <f t="shared" si="4"/>
-        <v>1331.4356846851051</v>
+        <v>1219.954182263765</v>
       </c>
       <c r="M39">
         <f t="shared" si="7"/>
-        <v>4.0350553229541841E-2</v>
+        <v>3.1924954228607305E-2</v>
       </c>
       <c r="N39">
         <f t="shared" si="5"/>
-        <v>87.381630538510422</v>
+        <v>88.021359628574842</v>
       </c>
       <c r="O39" s="1">
         <f t="shared" si="6"/>
-        <v>-1.6065471378028158</v>
+        <v>-2.3504181727614446</v>
       </c>
     </row>
     <row r="40" spans="7:15" x14ac:dyDescent="0.25">
@@ -4820,31 +4813,31 @@
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>1003.2106735185798</v>
+        <v>1384.0329328386372</v>
       </c>
       <c r="J40">
         <f t="shared" si="2"/>
-        <v>911.7435840186231</v>
+        <v>1215.7668033849627</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="3"/>
-        <v>1.0333168908743486</v>
+        <v>0.9516727651892416</v>
       </c>
       <c r="L40" s="3">
         <f t="shared" si="4"/>
-        <v>1282.5654500064643</v>
+        <v>1181.2277715803436</v>
       </c>
       <c r="M40">
         <f t="shared" si="7"/>
-        <v>3.9372991806522206E-2</v>
+        <v>3.1200477357248735E-2</v>
       </c>
       <c r="N40">
         <f t="shared" si="5"/>
-        <v>89.340646951132314</v>
+        <v>89.86694177083163</v>
       </c>
       <c r="O40" s="1">
         <f t="shared" si="6"/>
-        <v>-1.5234624444685385</v>
+        <v>-2.1215247395813983</v>
       </c>
     </row>
     <row r="41" spans="7:15" x14ac:dyDescent="0.25">
@@ -4857,31 +4850,31 @@
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>944.85376966921251</v>
+        <v>1314.5024860363169</v>
       </c>
       <c r="J41">
         <f t="shared" si="2"/>
-        <v>863.28587805131451</v>
+        <v>1161.785494022912</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="3"/>
-        <v>0.99495597677036507</v>
+        <v>0.92121329553908593</v>
       </c>
       <c r="L41" s="3">
         <f t="shared" si="4"/>
-        <v>1234.9514184398229</v>
+        <v>1143.4211086448777</v>
       </c>
       <c r="M41">
         <f t="shared" si="7"/>
-        <v>3.8360914103983568E-2</v>
+        <v>3.0459469650155668E-2</v>
       </c>
       <c r="N41">
         <f t="shared" si="5"/>
-        <v>91.249307098224165</v>
+        <v>91.668691551941293</v>
       </c>
       <c r="O41" s="1">
         <f t="shared" si="6"/>
-        <v>-1.3881189980268498</v>
+        <v>-1.8541017243792151</v>
       </c>
     </row>
     <row r="42" spans="7:15" x14ac:dyDescent="0.25">
@@ -4894,31 +4887,31 @@
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>890.47590439250496</v>
+        <v>1249.1701959497761</v>
       </c>
       <c r="J42">
         <f t="shared" si="2"/>
-        <v>817.66482218958424</v>
+        <v>1110.4554151021159</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="3"/>
-        <v>0.95763480878779816</v>
+        <v>0.89150775273545824</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" si="4"/>
-        <v>1188.627932362067</v>
+        <v>1106.5502288498294</v>
       </c>
       <c r="M42">
         <f t="shared" si="7"/>
-        <v>3.7321167982566905E-2</v>
+        <v>2.9705542803627694E-2</v>
       </c>
       <c r="N42">
         <f>$C$14*K42+$C$15</f>
-        <v>93.106234328324973</v>
+        <v>93.425844774203853</v>
       </c>
       <c r="O42" s="1">
         <f t="shared" si="6"/>
-        <v>-1.202428617744536</v>
+        <v>-1.5498312763085356</v>
       </c>
     </row>
     <row r="43" spans="7:15" x14ac:dyDescent="0.25">
@@ -4931,31 +4924,31 @@
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>839.7697011063201</v>
+        <v>1187.7444860714663</v>
       </c>
       <c r="J43">
         <f t="shared" si="2"/>
-        <v>774.7117551958803</v>
+        <v>1061.6478482773593</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="3"/>
-        <v>0.92137454903524774</v>
+        <v>0.86256564581323225</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" si="4"/>
-        <v>1143.6212584389016</v>
+        <v>1070.6269349245454</v>
       </c>
       <c r="M43">
         <f t="shared" si="7"/>
-        <v>3.6260259752550428E-2</v>
+        <v>2.8942106922225985E-2</v>
       </c>
       <c r="N43">
         <f t="shared" ref="N43:N46" si="8">$C$14*K43+$C$15</f>
-        <v>94.910375713623822</v>
+        <v>95.137838955681872</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="6"/>
-        <v>-0.96848480172746965</v>
+        <v>-1.210466974129651</v>
       </c>
     </row>
     <row r="44" spans="7:15" x14ac:dyDescent="0.25">
@@ -4968,31 +4961,31 @@
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>792.45412165987295</v>
+        <v>1129.95648432504</v>
       </c>
       <c r="J44">
         <f t="shared" si="2"/>
-        <v>734.26684304310379</v>
+        <v>1015.2389058451602</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="3"/>
-        <v>0.88619023714067113</v>
+        <v>0.83439328713712801</v>
       </c>
       <c r="L44" s="3">
         <f t="shared" si="4"/>
-        <v>1099.9500640388451</v>
+        <v>1035.6590618526293</v>
       </c>
       <c r="M44">
         <f t="shared" si="7"/>
-        <v>3.5184311894576603E-2</v>
+        <v>2.8172358676104237E-2</v>
       </c>
       <c r="N44">
         <f t="shared" si="8"/>
-        <v>96.66098295238757</v>
+        <v>96.80430070504967</v>
       </c>
       <c r="O44" s="1">
         <f t="shared" si="6"/>
-        <v>-0.68852390873705249</v>
+        <v>-0.83781323442673938</v>
       </c>
     </row>
     <row r="45" spans="7:15" x14ac:dyDescent="0.25">
@@ -5005,31 +4998,31 @@
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>748.27199946526787</v>
+        <v>1075.5580749543942</v>
       </c>
       <c r="J45">
         <f t="shared" si="2"/>
-        <v>696.17888298927937</v>
+        <v>971.10959797736689</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="3"/>
-        <v>0.85209120520871495</v>
+        <v>0.80699401370276036</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" si="4"/>
-        <v>1057.6259322833021</v>
+        <v>1001.6507515534868</v>
       </c>
       <c r="M45">
         <f t="shared" si="7"/>
-        <v>3.4099031931956181E-2</v>
+        <v>2.7399273434367655E-2</v>
       </c>
       <c r="N45">
         <f t="shared" si="8"/>
-        <v>98.357591722619617</v>
+        <v>98.42503263111206</v>
       </c>
       <c r="O45" s="1">
         <f t="shared" si="6"/>
-        <v>-0.36488951287716004</v>
+        <v>-0.4337067664408778</v>
       </c>
     </row>
     <row r="46" spans="7:15" x14ac:dyDescent="0.25">
@@ -5042,31 +5035,31 @@
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>706.98782242827019</v>
+        <v>1024.3201322938444</v>
       </c>
       <c r="J46">
         <f t="shared" si="2"/>
-        <v>660.30505885821606</v>
+        <v>929.14585208141341</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="3"/>
-        <v>0.81908151359428194</v>
+        <v>0.78036841270333468</v>
       </c>
       <c r="L46" s="3">
         <f t="shared" si="4"/>
-        <v>1016.6539029339937</v>
+        <v>968.6027328584421</v>
       </c>
       <c r="M46">
         <f t="shared" si="7"/>
-        <v>3.3009691614433012E-2</v>
+        <v>2.662560099942568E-2</v>
       </c>
       <c r="N46">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="O46" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.4210854715202004E-14</v>
       </c>
     </row>
   </sheetData>
@@ -5079,32 +5072,4 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B64B50-3C1B-4927-94D1-345283191450}">
-  <dimension ref="A2:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:C2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/kicad/design_calcs.xlsx
+++ b/kicad/design_calcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank Walsh\Documents\GitHub\phoenix-down\kicad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7BF1B7-A81D-427C-B4E9-3B19D64C1F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73597915-C472-4793-9185-F01ED6D5BD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12555" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thermistor" sheetId="1" r:id="rId1"/>
@@ -2965,15 +2965,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>123264</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:rowOff>172943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>313764</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>51172</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3382,32 +3382,32 @@
   <dimension ref="B2:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>-7.1054273576010019E-14</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>1.7394664881992645</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>2.9310506354380665</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>3.7075195473795799</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>4.1649433327409371</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>4.3749056092353555</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>4.3921213231668421</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>4.2593531473495378</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>4.0106774410387427</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>3.673708498960973</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="G16">
         <v>40</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>3.2711465628282714</v>
       </c>
     </row>
-    <row r="17" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G17">
         <v>42</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>2.8218760460940335</v>
       </c>
     </row>
-    <row r="18" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G18">
         <v>44</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>2.3417582458925135</v>
       </c>
     </row>
-    <row r="19" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G19">
         <v>46</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>1.8442127634788519</v>
       </c>
     </row>
-    <row r="20" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G20">
         <v>48</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>1.3406505364482513</v>
       </c>
     </row>
-    <row r="21" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G21">
         <v>50</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>0.8408013059711551</v>
       </c>
     </row>
-    <row r="22" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G22">
         <v>52</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>0.35296517679164197</v>
       </c>
     </row>
-    <row r="23" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G23">
         <v>54</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>-0.11579088362781123</v>
       </c>
     </row>
-    <row r="24" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G24">
         <v>56</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>-0.55947677084200775</v>
       </c>
     </row>
-    <row r="25" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G25">
         <v>58</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>-0.97305253029871563</v>
       </c>
     </row>
-    <row r="26" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G26">
         <v>60</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>-1.3523234844521899</v>
       </c>
     </row>
-    <row r="27" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G27">
         <v>62</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>-1.6938515847407818</v>
       </c>
     </row>
-    <row r="28" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G28">
         <v>64</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>-1.9948788981300147</v>
       </c>
     </row>
-    <row r="29" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G29">
         <v>66</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>-2.2532602536749593</v>
       </c>
     </row>
-    <row r="30" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G30">
         <v>68</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>-2.4674028968249426</v>
       </c>
     </row>
-    <row r="31" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G31">
         <v>70</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>-2.6362116077421098</v>
       </c>
     </row>
-    <row r="32" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G32">
         <v>72</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>-2.7590381905668577</v>
       </c>
     </row>
-    <row r="33" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G33">
         <v>74</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>-2.8356345731409256</v>
       </c>
     </row>
-    <row r="34" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G34">
         <v>76</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>-2.8661090001072864</v>
       </c>
     </row>
-    <row r="35" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G35">
         <v>78</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>-2.8508849779033616</v>
       </c>
     </row>
-    <row r="36" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G36">
         <v>80</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>-2.7906627540754236</v>
       </c>
     </row>
-    <row r="37" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G37">
         <v>82</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>-2.6863831978793766</v>
       </c>
     </row>
-    <row r="38" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G38">
         <v>84</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>-2.5391940038836767</v>
       </c>
     </row>
-    <row r="39" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G39">
         <v>86</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>-2.3504181727614446</v>
       </c>
     </row>
-    <row r="40" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G40">
         <v>88</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>-2.1215247395813983</v>
       </c>
     </row>
-    <row r="41" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G41">
         <v>90</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>-1.8541017243792151</v>
       </c>
     </row>
-    <row r="42" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G42">
         <v>92</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>-1.5498312763085356</v>
       </c>
     </row>
-    <row r="43" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G43">
         <v>94</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>-1.210466974129651</v>
       </c>
     </row>
-    <row r="44" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G44">
         <v>96</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>-0.83781323442673938</v>
       </c>
     </row>
-    <row r="45" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G45">
         <v>98</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>-0.4337067664408778</v>
       </c>
     </row>
-    <row r="46" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G46">
         <v>100</v>
       </c>
